--- a/KeyWordDriven/src/test/resources/Excel.xlsx
+++ b/KeyWordDriven/src/test/resources/Excel.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FT_01" sheetId="3" r:id="rId1"/>
     <sheet name="Login_DWS" sheetId="4" r:id="rId2"/>
+    <sheet name="ST_01" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
   <si>
     <t>test step</t>
   </si>
@@ -98,6 +99,36 @@
   </si>
   <si>
     <t>//a[text()='Log in']</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Apparel &amp; Shoes')]</t>
+  </si>
+  <si>
+    <t>//a[text()='Blue and green Sneaker']</t>
+  </si>
+  <si>
+    <t>//input[@id="add-to-cart-button-28"]</t>
+  </si>
+  <si>
+    <t>//button[@id="checkout"]</t>
+  </si>
+  <si>
+    <t>//li[@id="topcartlink"]</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),"50's Rockabilly")]</t>
+  </si>
+  <si>
+    <t>//input[@id="add-to-cart-button-5"]</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>//input[@id="termsofservice"]</t>
+  </si>
+  <si>
+    <t>xyzabc</t>
   </si>
 </sst>
 </file>
@@ -557,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,4 +747,295 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KeyWordDriven/src/test/resources/Excel.xlsx
+++ b/KeyWordDriven/src/test/resources/Excel.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FT_01" sheetId="3" r:id="rId1"/>
     <sheet name="Login_DWS" sheetId="4" r:id="rId2"/>
     <sheet name="ST_01" sheetId="5" r:id="rId3"/>
+    <sheet name="FT_02" sheetId="6" r:id="rId4"/>
+    <sheet name="FT_03" sheetId="7" r:id="rId5"/>
+    <sheet name="FT_04" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="45">
   <si>
     <t>test step</t>
   </si>
@@ -129,6 +132,33 @@
   </si>
   <si>
     <t>xyzabc</t>
+  </si>
+  <si>
+    <t>search and mousehover</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Computers')])[1]</t>
+  </si>
+  <si>
+    <t>rightclick</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'About us')]</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Books')]</t>
+  </si>
+  <si>
+    <t>//select[@id="products-orderby"]</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>Name: A to Z</t>
   </si>
 </sst>
 </file>
@@ -467,7 +497,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1038,4 +1068,356 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>